--- a/State Table M1.xlsx
+++ b/State Table M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>State Code/ Clock Cycle</t>
   </si>
@@ -61,6 +61,48 @@
   </si>
   <si>
     <t>V[(j-5)/2]</t>
+  </si>
+  <si>
+    <t>NOTES:</t>
+  </si>
+  <si>
+    <t>SRAM_address 0:38399 Y Segment</t>
+  </si>
+  <si>
+    <t>SRAM_address 38400:57599 U Segment</t>
+  </si>
+  <si>
+    <t>SRAM_address 57600:76799 V Segment</t>
+  </si>
+  <si>
+    <t>SRAM_address 76800:146943 Unused</t>
+  </si>
+  <si>
+    <t>SRAM_address 146944:262143 RGB Segment</t>
+  </si>
+  <si>
+    <t>SRAM_address 0: Y values pixels 0 and 1</t>
+  </si>
+  <si>
+    <t>SRAM_address 38399: Y values pixels 320x240-2 and 320x240-1</t>
+  </si>
+  <si>
+    <t>SRAM_address 38400: U values 0 and 1?</t>
+  </si>
+  <si>
+    <t>SRAM_address 57599 U values 160x240-2 and 160x240-1</t>
+  </si>
+  <si>
+    <t>SRAM_address 57600: V valyes 0 and 1?</t>
+  </si>
+  <si>
+    <t>SRAM_address 76799 U values 160x240-2 and 160x240-1</t>
+  </si>
+  <si>
+    <t>SRAM_address 146944: RG pixel 0</t>
+  </si>
+  <si>
+    <t>SRAM_address 262143: GB 320x240-1</t>
   </si>
 </sst>
 </file>
@@ -415,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +644,60 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/State Table M1.xlsx
+++ b/State Table M1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>State Code/ Clock Cycle</t>
   </si>
@@ -103,6 +103,30 @@
   </si>
   <si>
     <t>SRAM_address 262143: GB 320x240-1</t>
+  </si>
+  <si>
+    <t>U[j+3/2]</t>
+  </si>
+  <si>
+    <t>U[j+1/2]</t>
+  </si>
+  <si>
+    <t>U[j-3/2]</t>
+  </si>
+  <si>
+    <t>U[j-1/2]</t>
+  </si>
+  <si>
+    <t>V[j+1/2]</t>
+  </si>
+  <si>
+    <t>V[j+3/2]</t>
+  </si>
+  <si>
+    <t>V[j-3/2]</t>
+  </si>
+  <si>
+    <t>V[j-1/2]</t>
   </si>
 </sst>
 </file>
@@ -126,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,13 +173,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +628,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -602,8 +638,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -614,7 +650,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -625,7 +661,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -636,7 +672,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -645,57 +681,133 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G26" t="s">
         <v>21</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G27" t="s">
         <v>23</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G28" t="s">
         <v>25</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L30" t="s">
         <v>28</v>
       </c>
     </row>
